--- a/Data/DemoData.xlsx
+++ b/Data/DemoData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shilpamalhotra\Documents\Test Studio Projects\TestProject1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shilpamalhotra\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E603B0-8759-4976-AF46-7F4F50281F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F1E521-64BE-4A74-AA0B-D11C3C9A2A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>firstname</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>shilpa@gmail.com</t>
+  </si>
+  <si>
+    <t>Stefy</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>stef@gmailc.om</t>
   </si>
 </sst>
 </file>
@@ -371,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -401,9 +410,21 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D89D65D4-2710-496D-AF51-E94FC7459EFE}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D8AEDAC8-0FAD-4E36-8856-9F5730C79FE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
